--- a/biology/Botanique/Gravenstein/Gravenstein.xlsx
+++ b/biology/Botanique/Gravenstein/Gravenstein.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gravenstein est le nom d'un cultivar de pommier domestique.
 </t>
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'origine de cette variété est controversée[1]. Les Français et les Anglais estiment qu'elle serait originaire d'un semis chanceux de Calville réalisé en 1760 au château de Gravenstein (Gråsten-æble en danois) appartenant aux ducs d'Augustenbourg à Gråsten, une ville du Sud Jutland au Danemark.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'origine de cette variété est controversée. Les Français et les Anglais estiment qu'elle serait originaire d'un semis chanceux de Calville réalisé en 1760 au château de Gravenstein (Gråsten-æble en danois) appartenant aux ducs d'Augustenbourg à Gråsten, une ville du Sud Jutland au Danemark.
 La variété fut ensuite très cultivée en Suède et en Norvège car elle supporte bien le froid.
 Les Allemands pensent, eux, que la variété serait originaire d'Italie puis importée en Allemagne où elle a été cultivée dans le parc de Graefenstein d'où elle tire son nom. Cette deuxième option est celle privilégiée par André Leroy.
 En 1822, la Royal Horticultural Society de Londres envoya des greffons de la variété aux États-Unis, où elle rencontra un très grand succès. Avant que la Californie du Nord ne devienne célèbre pour son vin, elle était célèbre pour la culture de cette variété de pomme : c'était la pomme qui était mise en conserve pour l'armée américaine pendant la Seconde Guerre mondiale. Aujourd'hui, les arbres qui ont survécu à la révolution du vin ont une seconde chance avec le retour du cidre dans les pubs américains.
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La pomme Gravenstein est considérée comme une des meilleures variétés de pomme, aussi bien en pomme à couteau, en pomme à cuire (compote) ou à cidre.
 De forme ronde, sa peau jaune-vert à rayures rouges est cireuse mais il existe aussi une variante entièrement rouge, la Gravenstein rouge.
@@ -578,7 +594,9 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Variété triploïde, elle est de mauvaise qualité pollinique.
 Groupe de floraison : A (précoce).
@@ -613,7 +631,9 @@
           <t>Susceptibilité aux maladies</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Tavelure: élevée.
 Mildiou: élevée.
@@ -649,9 +669,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vigueur du cultivar: très vigoureux[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vigueur du cultivar: très vigoureux.
 Le pommier Gravenstein sera donc souvent un arbre vigoureux et fertile au port érigé (Type I) qui met à fruits rapidement. Il a une écorce rouge-marron, de grandes feuilles coriaces brillantes vert foncé. Il apprécie un substrat humide.
 Il a tendance à l'alternance et à la chute des fruits.
 La Gravenstein se récolte dès juillet-août mais elle se conserve mal et n'est donc disponible que jusqu'en novembre, ce qui rend sa commercialisation difficile.
@@ -684,7 +706,9 @@
           <t>Zones de production</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">En Autriche, Gravenstein est utilisé pour la fabrication de l'Obstler, alcool populaire dans le Steiermark.
 Au Danemark, le ministre de l'agriculture Hans Christian Schmidt a déclaré le 18 septembre 2005 que la Gravenstein était la "pomme nationale" bien que les ventes de Gravenstein baissent régulièrement.
